--- a/pred_ohlcv/54_21/2019-11-24 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>185225.3243119691</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>185227.3243119691</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>185230.8104119691</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>181526.2620119691</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>181603.5053119691</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>163833.7558119691</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>163848.2936119691</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>160903.3676119691</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>160246.5784119691</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>163130.2827119691</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>163318.5539119691</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>163465.2548119691</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>160230.2193119691</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>158424.8856119691</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>157187.8008119691</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>158734.9744119691</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>145831.3754119691</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>145805.3754119691</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>145793.1716119691</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-87126.42223332429</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>185225.3243119691</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>185227.3243119691</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>185230.8104119691</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -756,7 +756,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>181603.5053119691</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>163833.7558119691</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>163848.2936119691</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>160903.3676119691</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>160246.5784119691</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>163130.2827119691</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>163318.5539119691</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>163465.2548119691</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>160230.2193119691</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>158424.8856119691</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>157187.8008119691</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>158734.9744119691</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>145831.3754119691</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>145805.3754119691</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-91642.4247333243</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-87126.42223332429</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
